--- a/trunk/交易紀錄/交易紀錄-橡膠.xlsx
+++ b/trunk/交易紀錄/交易紀錄-橡膠.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總損益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -421,7 +417,7 @@
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -446,181 +442,189 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>40088</v>
-      </c>
-      <c r="B2">
-        <v>199</v>
-      </c>
-      <c r="C2" s="1">
-        <v>40093</v>
-      </c>
-      <c r="D2">
-        <v>204.9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>2008</v>
       </c>
       <c r="F2">
-        <v>29500</v>
+        <v>20400</v>
       </c>
       <c r="G2">
         <v>1600</v>
       </c>
       <c r="H2">
         <f>F2-G2</f>
-        <v>27900</v>
-      </c>
-      <c r="I2">
-        <f>SUM(H2:H23)</f>
-        <v>-51100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>40115</v>
+        <v>40088</v>
       </c>
       <c r="B3">
-        <v>224.1</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1">
-        <v>40115</v>
+        <v>40093</v>
       </c>
       <c r="D3">
-        <v>227.7</v>
+        <v>204.9</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>-18000</v>
+        <v>29500</v>
       </c>
       <c r="G3">
         <v>1600</v>
       </c>
       <c r="H3">
-        <f>F3-G3</f>
-        <v>-19600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <f t="shared" ref="H3:H8" si="0">F3-G3</f>
+        <v>27900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>40115</v>
       </c>
       <c r="B4">
-        <v>227.8</v>
+        <v>224.1</v>
       </c>
       <c r="C4" s="1">
-        <v>40119</v>
+        <v>40115</v>
       </c>
       <c r="D4">
-        <v>223.9</v>
+        <v>227.7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>-19500</v>
+        <v>-18000</v>
       </c>
       <c r="G4">
         <v>1600</v>
       </c>
       <c r="H4">
-        <f>F4-G4</f>
-        <v>-21100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <f t="shared" si="0"/>
+        <v>-19600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>40115</v>
+      </c>
+      <c r="B5">
+        <v>227.8</v>
+      </c>
+      <c r="C5" s="1">
         <v>40119</v>
       </c>
-      <c r="B5">
-        <v>225.5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>40121</v>
-      </c>
       <c r="D5">
-        <v>230.3</v>
+        <v>223.9</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>-24000</v>
+        <v>-19500</v>
       </c>
       <c r="G5">
         <v>1600</v>
       </c>
       <c r="H5">
-        <f>F5-G5</f>
-        <v>-25600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <f t="shared" si="0"/>
+        <v>-21100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
+        <v>40119</v>
+      </c>
+      <c r="B6">
+        <v>225.5</v>
+      </c>
+      <c r="C6" s="1">
         <v>40121</v>
       </c>
-      <c r="B6">
-        <v>228.7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>40127</v>
-      </c>
       <c r="D6">
-        <v>230.7</v>
+        <v>230.3</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>10000</v>
+        <v>-24000</v>
       </c>
       <c r="G6">
         <v>1600</v>
       </c>
       <c r="H6">
-        <f>F6-G6</f>
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <f t="shared" si="0"/>
+        <v>-25600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
+        <v>40121</v>
+      </c>
+      <c r="B7">
+        <v>228.7</v>
+      </c>
+      <c r="C7" s="1">
         <v>40127</v>
       </c>
-      <c r="B7">
-        <v>232.6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>40129</v>
-      </c>
       <c r="D7">
-        <v>236.5</v>
+        <v>230.6</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>-19500</v>
+        <v>9500</v>
       </c>
       <c r="G7">
         <v>1600</v>
       </c>
       <c r="H7">
-        <f>F7-G7</f>
+        <f t="shared" si="0"/>
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>40127</v>
+      </c>
+      <c r="B8">
+        <v>232.6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40129</v>
+      </c>
+      <c r="D8">
+        <v>236.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>-19500</v>
+      </c>
+      <c r="G8">
+        <v>1600</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
         <v>-21100</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>40129</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>236.4</v>
       </c>
     </row>

--- a/trunk/交易紀錄/交易紀錄-橡膠.xlsx
+++ b/trunk/交易紀錄/交易紀錄-橡膠.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始資金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手動出場</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -417,7 +429,7 @@
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -442,8 +454,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -457,8 +472,11 @@
         <f>F2-G2</f>
         <v>18800</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>40088</v>
       </c>
@@ -484,8 +502,11 @@
         <f t="shared" ref="H3:H8" si="0">F3-G3</f>
         <v>27900</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>40115</v>
       </c>
@@ -512,7 +533,7 @@
         <v>-19600</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>40115</v>
       </c>
@@ -539,7 +560,7 @@
         <v>-21100</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>40119</v>
       </c>
@@ -566,7 +587,7 @@
         <v>-25600</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>40121</v>
       </c>
@@ -593,12 +614,12 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>40127</v>
       </c>
       <c r="B8">
-        <v>232.6</v>
+        <v>232.4</v>
       </c>
       <c r="C8" s="1">
         <v>40129</v>
@@ -610,22 +631,45 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>-19500</v>
+        <v>-20500</v>
       </c>
       <c r="G8">
         <v>1600</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>-21100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-22100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>40129</v>
       </c>
       <c r="B9">
         <v>236.4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>40136</v>
+      </c>
+      <c r="D9">
+        <v>244</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <f>(244-236.4)*5000</f>
+        <v>37999.999999999971</v>
+      </c>
+      <c r="G9">
+        <v>1600</v>
+      </c>
+      <c r="H9">
+        <f>F9-G9</f>
+        <v>36399.999999999971</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/交易紀錄/交易紀錄-橡膠.xlsx
+++ b/trunk/交易紀錄/交易紀錄-橡膠.xlsx
@@ -94,12 +94,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,11 +122,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -420,7 +432,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -534,137 +546,137 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>40115</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>227.8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>40119</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>223.9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>-19500</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>1600</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>-21100</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>40119</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>225.5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>40121</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>230.3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>-24000</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>1600</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>-25600</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>40121</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>228.7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>40127</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>230.6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>9500</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>1600</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>7900</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>40127</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>232.4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>40129</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>236.5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>-20500</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>-22100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>40129</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>236.4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>40136</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>244</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <f>(244-236.4)*5000</f>
         <v>37999.999999999971</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <f>F9-G9</f>
         <v>36399.999999999971</v>
       </c>

--- a/trunk/交易紀錄/交易紀錄-橡膠.xlsx
+++ b/trunk/交易紀錄/交易紀錄-橡膠.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="14895" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="14895" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>手動出場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -133,6 +137,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -692,12 +702,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4">
+        <v>40185</v>
+      </c>
+      <c r="B2" s="5">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="C2" s="4">
+        <v>40190</v>
+      </c>
+      <c r="D2" s="5">
+        <v>298.8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-31000</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1600</v>
+      </c>
+      <c r="H2" s="5">
+        <f>F2-G2</f>
+        <v>-32600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>40190</v>
+      </c>
+      <c r="B3">
+        <v>298.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40191</v>
+      </c>
+      <c r="D3">
+        <v>291.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>-36500</v>
+      </c>
+      <c r="G3">
+        <v>1600</v>
+      </c>
+      <c r="H3">
+        <f>F3-G3</f>
+        <v>-38100</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/交易紀錄/交易紀錄-橡膠.xlsx
+++ b/trunk/交易紀錄/交易紀錄-橡膠.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,10 +714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -791,6 +803,71 @@
       <c r="H3">
         <f>F3-G3</f>
         <v>-38100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>40191</v>
+      </c>
+      <c r="B4">
+        <v>293.89999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40193</v>
+      </c>
+      <c r="D4">
+        <v>304.3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>52000</v>
+      </c>
+      <c r="G4">
+        <v>1600</v>
+      </c>
+      <c r="H4">
+        <f>F4-G4</f>
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>40193</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40193</v>
+      </c>
+      <c r="D5">
+        <v>298.10000000000002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>-9500</v>
+      </c>
+      <c r="G5">
+        <v>1600</v>
+      </c>
+      <c r="H5">
+        <f>F5-G5</f>
+        <v>-11100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>40193</v>
+      </c>
+      <c r="B6">
+        <v>298.10000000000002</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/交易紀錄/交易紀錄-橡膠.xlsx
+++ b/trunk/交易紀錄/交易紀錄-橡膠.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,10 +726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -866,8 +878,89 @@
       <c r="B6">
         <v>298.10000000000002</v>
       </c>
+      <c r="C6" s="1">
+        <v>40196</v>
+      </c>
+      <c r="D6">
+        <v>296.2</v>
+      </c>
       <c r="E6" t="s">
         <v>16</v>
+      </c>
+      <c r="F6">
+        <v>9500</v>
+      </c>
+      <c r="G6">
+        <v>1600</v>
+      </c>
+      <c r="H6">
+        <f>F6-G6</f>
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>40196</v>
+      </c>
+      <c r="B7">
+        <v>296.8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40197</v>
+      </c>
+      <c r="D7">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>13000</v>
+      </c>
+      <c r="G7">
+        <v>1600</v>
+      </c>
+      <c r="H7">
+        <f>F7-G7</f>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>40197</v>
+      </c>
+      <c r="B8">
+        <v>299.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40197</v>
+      </c>
+      <c r="D8">
+        <v>302.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>-15000</v>
+      </c>
+      <c r="G8">
+        <v>1600</v>
+      </c>
+      <c r="H8">
+        <f>F8-G8</f>
+        <v>-16600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>40197</v>
+      </c>
+      <c r="B9">
+        <v>301</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/交易紀錄/交易紀錄-橡膠.xlsx
+++ b/trunk/交易紀錄/交易紀錄-橡膠.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H9" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -729,7 +729,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -786,8 +786,11 @@
         <v>1600</v>
       </c>
       <c r="H2" s="5">
-        <f>F2-G2</f>
+        <f t="shared" ref="H2:H8" si="0">F2-G2</f>
         <v>-32600</v>
+      </c>
+      <c r="I2" s="5">
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -813,7 +816,7 @@
         <v>1600</v>
       </c>
       <c r="H3">
-        <f>F3-G3</f>
+        <f t="shared" si="0"/>
         <v>-38100</v>
       </c>
     </row>
@@ -840,7 +843,7 @@
         <v>1600</v>
       </c>
       <c r="H4">
-        <f>F4-G4</f>
+        <f t="shared" si="0"/>
         <v>50400</v>
       </c>
     </row>
@@ -867,7 +870,7 @@
         <v>1600</v>
       </c>
       <c r="H5">
-        <f>F5-G5</f>
+        <f t="shared" si="0"/>
         <v>-11100</v>
       </c>
     </row>
@@ -894,7 +897,7 @@
         <v>1600</v>
       </c>
       <c r="H6">
-        <f>F6-G6</f>
+        <f t="shared" si="0"/>
         <v>7900</v>
       </c>
     </row>
@@ -921,7 +924,7 @@
         <v>1600</v>
       </c>
       <c r="H7">
-        <f>F7-G7</f>
+        <f t="shared" si="0"/>
         <v>11400</v>
       </c>
     </row>
@@ -948,7 +951,7 @@
         <v>1600</v>
       </c>
       <c r="H8">
-        <f>F8-G8</f>
+        <f t="shared" si="0"/>
         <v>-16600</v>
       </c>
     </row>

--- a/trunk/交易紀錄/交易紀錄-橡膠.xlsx
+++ b/trunk/交易紀錄/交易紀錄-橡膠.xlsx
@@ -729,7 +729,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -786,7 +786,7 @@
         <v>1600</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H8" si="0">F2-G2</f>
+        <f t="shared" ref="H2:H9" si="0">F2-G2</f>
         <v>-32600</v>
       </c>
       <c r="I2" s="5">
@@ -962,8 +962,24 @@
       <c r="B9">
         <v>301</v>
       </c>
+      <c r="C9" s="1">
+        <v>40198</v>
+      </c>
+      <c r="D9">
+        <v>296.3</v>
+      </c>
       <c r="E9" t="s">
         <v>19</v>
+      </c>
+      <c r="F9">
+        <v>-23500</v>
+      </c>
+      <c r="G9">
+        <v>1600</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-25100</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/交易紀錄/交易紀錄-橡膠.xlsx
+++ b/trunk/交易紀錄/交易紀錄-橡膠.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -726,10 +730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -786,7 +790,7 @@
         <v>1600</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H9" si="0">F2-G2</f>
+        <f t="shared" ref="H2:H12" si="0">F2-G2</f>
         <v>-32600</v>
       </c>
       <c r="I2" s="5">
@@ -980,6 +984,87 @@
       <c r="H9">
         <f t="shared" si="0"/>
         <v>-25100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>40206</v>
+      </c>
+      <c r="B10">
+        <v>274.7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>40207</v>
+      </c>
+      <c r="D10">
+        <v>276.39999999999998</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>8500</v>
+      </c>
+      <c r="G10">
+        <v>1600</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>40213</v>
+      </c>
+      <c r="B11">
+        <v>281.2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>40214</v>
+      </c>
+      <c r="D11">
+        <v>270.3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>-54500</v>
+      </c>
+      <c r="G11">
+        <v>1600</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-56100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>40213</v>
+      </c>
+      <c r="B12">
+        <v>281.3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40214</v>
+      </c>
+      <c r="D12">
+        <v>271.60000000000002</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>-48500</v>
+      </c>
+      <c r="G12">
+        <v>1600</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-50100</v>
       </c>
     </row>
   </sheetData>
